--- a/data/plan_inputs/q32021_privates_bounds.xlsx
+++ b/data/plan_inputs/q32021_privates_bounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\plan_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E04E8D0-968D-435B-87A4-B638C5E709C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095695EC-D0DD-4F1B-BEA2-82DCECF8F4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
@@ -2783,7 +2783,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,10 +2875,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C8" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,10 +2886,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBEB6D4-2AE9-451C-8B98-7CD6ABB87588}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,10 +3027,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.105</v>
       </c>
       <c r="C8" s="2">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.04</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.05</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,10 +3049,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C10" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB3E76-67FD-49C8-BA1C-08AF9388B001}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,10 +3179,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.0000000000000007E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3201,10 +3201,10 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>0.03</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.04</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
